--- a/sample/adm.xlsx
+++ b/sample/adm.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\pshtm\sample\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D38B0D4-5F56-49F7-A55D-821FF2DB4C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9A7A4E-4092-4CDA-BF88-F9EFD5724C1E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{A951D733-14EC-40D6-A510-6EB4B58AA340}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="14">
   <si>
     <t>id</t>
   </si>
@@ -57,16 +57,25 @@
     <t>usnm</t>
   </si>
   <si>
-    <t>elv</t>
-  </si>
-  <si>
-    <t>en</t>
-  </si>
-  <si>
-    <t>ev@gmail.com</t>
-  </si>
-  <si>
-    <t>ev11</t>
+    <t>fif</t>
+  </si>
+  <si>
+    <t>ty</t>
+  </si>
+  <si>
+    <t>50@gmail.com</t>
+  </si>
+  <si>
+    <t>fift</t>
+  </si>
+  <si>
+    <t>one</t>
+  </si>
+  <si>
+    <t>51@gmail.com</t>
+  </si>
+  <si>
+    <t>fifty</t>
   </si>
 </sst>
 </file>
@@ -429,10 +438,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E099D10-D762-49C0-8FE5-3E3C0C757D12}">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -466,7 +475,7 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>12</v>
+        <v>70</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -475,7 +484,7 @@
         <v>8</v>
       </c>
       <c r="D2">
-        <v>1231231231</v>
+        <v>1000000001</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>9</v>
@@ -485,11 +494,35 @@
       </c>
       <c r="G2" t="s">
         <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>71</v>
+      </c>
+      <c r="B3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3">
+        <v>1234567890</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{D4845832-93F7-4785-BB88-D2B791065625}"/>
+    <hyperlink ref="E3" r:id="rId2" xr:uid="{731E035F-B3EC-4A58-93DF-54A9E52110F6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
